--- a/document/均匀测试_迪文屏幕_RAM变量分配表.xlsx
+++ b/document/均匀测试_迪文屏幕_RAM变量分配表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="327">
   <si>
     <t>登录界面</t>
   </si>
@@ -195,7 +195,7 @@
     <t>0x100F</t>
   </si>
   <si>
-    <t>前台数据</t>
+    <t>前台数据(old)</t>
   </si>
   <si>
     <t>系统后台参数</t>
@@ -580,6 +580,9 @@
     <t>0x200C</t>
   </si>
   <si>
+    <t>前台数据(new)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -659,6 +662,9 @@
     <t>4个16bit地址，触摸下发：8Byte数据</t>
   </si>
   <si>
+    <t>%.3f</t>
+  </si>
+  <si>
     <t>开发者模式（4个按钮）</t>
   </si>
   <si>
@@ -714,6 +720,30 @@
   </si>
   <si>
     <t>0x201C</t>
+  </si>
+  <si>
+    <t>0x105C</t>
+  </si>
+  <si>
+    <t>0x105E</t>
+  </si>
+  <si>
+    <t>0x1060</t>
+  </si>
+  <si>
+    <t>7_采样电压</t>
+  </si>
+  <si>
+    <t>0x1062</t>
+  </si>
+  <si>
+    <t>0x1064</t>
+  </si>
+  <si>
+    <t>0x1066</t>
+  </si>
+  <si>
+    <t>0x1068</t>
   </si>
   <si>
     <t>开关量_数字输入（0路）</t>
@@ -2282,7 +2312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2595,6 +2625,54 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2703,6 +2781,12 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,6 +2796,9 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2722,6 +2809,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,6 +2884,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2867,7 +2978,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2885,7 +2996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19503390" y="7432040"/>
-          <a:ext cx="7243445" cy="5052695"/>
+          <a:ext cx="7243445" cy="5071745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,10 +3341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:R68"/>
+  <dimension ref="B3:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J35" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68:M68"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3265,7 +3376,7 @@
       <c r="N4" s="83"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
-      <c r="Q4" s="110"/>
+      <c r="Q4" s="126"/>
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="58"/>
@@ -3280,7 +3391,7 @@
       <c r="N5" s="85"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
-      <c r="Q5" s="112"/>
+      <c r="Q5" s="128"/>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" s="61" t="s">
@@ -3323,13 +3434,13 @@
         <v>9</v>
       </c>
       <c r="G7" s="69"/>
-      <c r="J7" s="104">
+      <c r="J7" s="120">
         <v>1</v>
       </c>
-      <c r="K7" s="105" t="s">
+      <c r="K7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="15" t="s">
         <v>11</v>
       </c>
@@ -3337,10 +3448,10 @@
         <v>12</v>
       </c>
       <c r="O7" s="15"/>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="147"/>
+      <c r="Q7" s="168"/>
     </row>
     <row r="8" spans="3:18">
       <c r="C8" s="66" t="s">
@@ -3354,13 +3465,13 @@
         <v>15</v>
       </c>
       <c r="G8" s="69"/>
-      <c r="J8" s="104">
+      <c r="J8" s="120">
         <v>2</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="106"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="15" t="s">
         <v>11</v>
       </c>
@@ -3368,13 +3479,13 @@
         <v>17</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="107" t="s">
+      <c r="P8" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="148">
+      <c r="Q8" s="168"/>
+      <c r="R8" s="169">
         <f ca="1">NOW()</f>
-        <v>44896.6678356481</v>
+        <v>44918.6649884259</v>
       </c>
     </row>
     <row r="9" spans="3:17">
@@ -3389,7 +3500,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="69"/>
-      <c r="J9" s="104">
+      <c r="J9" s="120">
         <v>3</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -3403,10 +3514,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="107" t="s">
+      <c r="P9" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="147"/>
+      <c r="Q9" s="168"/>
     </row>
     <row r="10" spans="3:17">
       <c r="C10" s="66" t="s">
@@ -3420,7 +3531,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="69"/>
-      <c r="J10" s="104">
+      <c r="J10" s="120">
         <v>4</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -3434,10 +3545,10 @@
         <v>27</v>
       </c>
       <c r="O10" s="15"/>
-      <c r="P10" s="107" t="s">
+      <c r="P10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="147"/>
+      <c r="Q10" s="168"/>
     </row>
     <row r="11" spans="3:17">
       <c r="C11" s="66" t="s">
@@ -3451,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="71"/>
-      <c r="J11" s="104">
+      <c r="J11" s="120">
         <v>5</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -3465,10 +3576,10 @@
         <v>31</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="107" t="s">
+      <c r="P11" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="147"/>
+      <c r="Q11" s="168"/>
     </row>
     <row r="12" spans="3:17">
       <c r="C12" s="72" t="s">
@@ -3482,7 +3593,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="75"/>
-      <c r="J12" s="104">
+      <c r="J12" s="120">
         <v>6</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -3496,10 +3607,10 @@
         <v>34</v>
       </c>
       <c r="O12" s="15"/>
-      <c r="P12" s="107" t="s">
+      <c r="P12" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="147"/>
+      <c r="Q12" s="168"/>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" s="76" t="s">
@@ -3509,7 +3620,7 @@
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="78"/>
-      <c r="J13" s="104">
+      <c r="J13" s="120">
         <v>7</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -3523,10 +3634,10 @@
         <v>36</v>
       </c>
       <c r="O13" s="15"/>
-      <c r="P13" s="107" t="s">
+      <c r="P13" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="147"/>
+      <c r="Q13" s="168"/>
     </row>
     <row r="14" ht="15.15" spans="3:17">
       <c r="C14" s="79" t="s">
@@ -3536,7 +3647,7 @@
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
-      <c r="J14" s="104">
+      <c r="J14" s="120">
         <v>8</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -3550,13 +3661,13 @@
         <v>38</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="107" t="s">
+      <c r="P14" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="147"/>
+      <c r="Q14" s="168"/>
     </row>
     <row r="15" spans="10:17">
-      <c r="J15" s="104">
+      <c r="J15" s="120">
         <v>9</v>
       </c>
       <c r="K15" s="13" t="s">
@@ -3570,13 +3681,13 @@
         <v>39</v>
       </c>
       <c r="O15" s="15"/>
-      <c r="P15" s="107" t="s">
+      <c r="P15" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="147"/>
+      <c r="Q15" s="168"/>
     </row>
     <row r="16" spans="10:17">
-      <c r="J16" s="104">
+      <c r="J16" s="120">
         <v>10</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -3590,13 +3701,13 @@
         <v>40</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="107" t="s">
+      <c r="P16" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="147"/>
+      <c r="Q16" s="168"/>
     </row>
     <row r="17" spans="10:17">
-      <c r="J17" s="104">
+      <c r="J17" s="120">
         <v>11</v>
       </c>
       <c r="K17" s="13" t="s">
@@ -3610,13 +3721,13 @@
         <v>41</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="107" t="s">
+      <c r="P17" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="147"/>
+      <c r="Q17" s="168"/>
     </row>
     <row r="18" spans="10:17">
-      <c r="J18" s="104">
+      <c r="J18" s="120">
         <v>12</v>
       </c>
       <c r="K18" s="13" t="s">
@@ -3630,13 +3741,13 @@
         <v>42</v>
       </c>
       <c r="O18" s="15"/>
-      <c r="P18" s="107" t="s">
+      <c r="P18" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="147"/>
+      <c r="Q18" s="168"/>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="104">
+      <c r="J19" s="120">
         <v>13</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -3650,13 +3761,13 @@
         <v>43</v>
       </c>
       <c r="O19" s="15"/>
-      <c r="P19" s="107" t="s">
+      <c r="P19" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="147"/>
+      <c r="Q19" s="168"/>
     </row>
     <row r="20" ht="15.15" spans="10:17">
-      <c r="J20" s="108">
+      <c r="J20" s="124">
         <v>14</v>
       </c>
       <c r="K20" s="18" t="s">
@@ -3670,10 +3781,10 @@
         <v>44</v>
       </c>
       <c r="O20" s="20"/>
-      <c r="P20" s="109" t="s">
+      <c r="P20" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="149"/>
+      <c r="Q20" s="170"/>
     </row>
     <row r="22" ht="15.15"/>
     <row r="23" spans="2:18">
@@ -3686,8 +3797,8 @@
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
-      <c r="I23" s="110"/>
-      <c r="K23" s="111" t="s">
+      <c r="I23" s="126"/>
+      <c r="K23" s="127" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="83"/>
@@ -3696,7 +3807,7 @@
       <c r="O23" s="83"/>
       <c r="P23" s="83"/>
       <c r="Q23" s="83"/>
-      <c r="R23" s="110"/>
+      <c r="R23" s="126"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="84"/>
@@ -3706,7 +3817,7 @@
       <c r="F24" s="85"/>
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
-      <c r="I24" s="112"/>
+      <c r="I24" s="128"/>
       <c r="K24" s="84"/>
       <c r="L24" s="85"/>
       <c r="M24" s="85"/>
@@ -3714,7 +3825,7 @@
       <c r="O24" s="85"/>
       <c r="P24" s="85"/>
       <c r="Q24" s="85"/>
-      <c r="R24" s="112"/>
+      <c r="R24" s="128"/>
     </row>
     <row r="25" ht="15.15" spans="2:18">
       <c r="B25" s="86" t="s">
@@ -3734,7 +3845,7 @@
       <c r="H25" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="113"/>
+      <c r="I25" s="129"/>
       <c r="K25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3772,25 +3883,25 @@
       <c r="H26" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="114"/>
-      <c r="K26" s="115">
+      <c r="I26" s="130"/>
+      <c r="K26" s="131">
         <v>1</v>
       </c>
-      <c r="L26" s="116" t="s">
+      <c r="L26" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117" t="s">
+      <c r="M26" s="132"/>
+      <c r="N26" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="118" t="s">
+      <c r="O26" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="150" t="s">
+      <c r="P26" s="134"/>
+      <c r="Q26" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="151"/>
+      <c r="R26" s="172"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="98">
@@ -3810,25 +3921,25 @@
       <c r="H27" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="119"/>
-      <c r="K27" s="115">
+      <c r="I27" s="135"/>
+      <c r="K27" s="131">
         <v>2</v>
       </c>
-      <c r="L27" s="116" t="s">
+      <c r="L27" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="116"/>
-      <c r="N27" s="117" t="s">
+      <c r="M27" s="132"/>
+      <c r="N27" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="118" t="s">
+      <c r="O27" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="150" t="s">
+      <c r="P27" s="134"/>
+      <c r="Q27" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="151"/>
+      <c r="R27" s="172"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="98">
@@ -3848,25 +3959,25 @@
       <c r="H28" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="120"/>
-      <c r="K28" s="115">
+      <c r="I28" s="136"/>
+      <c r="K28" s="131">
         <v>3</v>
       </c>
-      <c r="L28" s="116" t="s">
+      <c r="L28" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="117" t="s">
+      <c r="M28" s="132"/>
+      <c r="N28" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="118" t="s">
+      <c r="O28" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="150" t="s">
+      <c r="P28" s="134"/>
+      <c r="Q28" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="151"/>
+      <c r="R28" s="172"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="98">
@@ -3886,25 +3997,25 @@
       <c r="H29" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="120"/>
-      <c r="K29" s="115">
+      <c r="I29" s="136"/>
+      <c r="K29" s="131">
         <v>4</v>
       </c>
-      <c r="L29" s="116" t="s">
+      <c r="L29" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="116"/>
-      <c r="N29" s="117" t="s">
+      <c r="M29" s="132"/>
+      <c r="N29" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="118" t="s">
+      <c r="O29" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="150" t="s">
+      <c r="P29" s="134"/>
+      <c r="Q29" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="R29" s="151"/>
+      <c r="R29" s="172"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="98">
@@ -3924,7 +4035,7 @@
       <c r="H30" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="119"/>
+      <c r="I30" s="135"/>
       <c r="K30" s="12">
         <v>5</v>
       </c>
@@ -3939,10 +4050,10 @@
         <v>62</v>
       </c>
       <c r="P30" s="15"/>
-      <c r="Q30" s="152" t="s">
+      <c r="Q30" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="R30" s="153"/>
+      <c r="R30" s="174"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="98">
@@ -3962,7 +4073,7 @@
       <c r="H31" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="119"/>
+      <c r="I31" s="135"/>
       <c r="K31" s="12">
         <v>6</v>
       </c>
@@ -3977,10 +4088,10 @@
         <v>65</v>
       </c>
       <c r="P31" s="15"/>
-      <c r="Q31" s="152" t="s">
+      <c r="Q31" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="R31" s="153"/>
+      <c r="R31" s="174"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="98">
@@ -4000,19 +4111,19 @@
       <c r="H32" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="120"/>
+      <c r="I32" s="136"/>
       <c r="K32" s="12">
         <v>7</v>
       </c>
-      <c r="L32" s="121" t="s">
+      <c r="L32" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="154"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="175"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="98">
@@ -4032,17 +4143,17 @@
       <c r="H33" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="120"/>
+      <c r="I33" s="136"/>
       <c r="K33" s="12">
         <v>8</v>
       </c>
-      <c r="L33" s="123"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="155"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="176"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="98">
@@ -4062,17 +4173,17 @@
       <c r="H34" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="119"/>
+      <c r="I34" s="135"/>
       <c r="K34" s="12">
         <v>9</v>
       </c>
-      <c r="L34" s="123"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="155"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="176"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="98">
@@ -4092,17 +4203,17 @@
       <c r="H35" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="119"/>
+      <c r="I35" s="135"/>
       <c r="K35" s="12">
         <v>10</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="156"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="142"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="177"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="98">
@@ -4122,25 +4233,25 @@
       <c r="H36" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="K36" s="115">
-        <v>11</v>
-      </c>
-      <c r="L36" s="116" t="s">
+      <c r="I36" s="136"/>
+      <c r="K36" s="131">
+        <v>11</v>
+      </c>
+      <c r="L36" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="M36" s="116"/>
-      <c r="N36" s="117" t="s">
+      <c r="M36" s="132"/>
+      <c r="N36" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O36" s="118" t="s">
+      <c r="O36" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="150" t="s">
+      <c r="P36" s="134"/>
+      <c r="Q36" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="R36" s="151"/>
+      <c r="R36" s="172"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="98">
@@ -4160,7 +4271,7 @@
       <c r="H37" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="120"/>
+      <c r="I37" s="136"/>
       <c r="K37" s="12">
         <v>12</v>
       </c>
@@ -4175,10 +4286,10 @@
         <v>83</v>
       </c>
       <c r="P37" s="15"/>
-      <c r="Q37" s="152" t="s">
+      <c r="Q37" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="R37" s="153"/>
+      <c r="R37" s="174"/>
     </row>
     <row r="38" ht="15.15" spans="2:18">
       <c r="B38" s="98">
@@ -4198,7 +4309,7 @@
       <c r="H38" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="119"/>
+      <c r="I38" s="135"/>
       <c r="K38" s="17">
         <v>13</v>
       </c>
@@ -4213,10 +4324,10 @@
         <v>87</v>
       </c>
       <c r="P38" s="20"/>
-      <c r="Q38" s="157" t="s">
+      <c r="Q38" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="R38" s="158"/>
+      <c r="R38" s="179"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="98">
@@ -4236,7 +4347,7 @@
       <c r="H39" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="119"/>
+      <c r="I39" s="135"/>
     </row>
     <row r="40" ht="15.15" spans="2:9">
       <c r="B40" s="98">
@@ -4256,7 +4367,7 @@
       <c r="H40" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="120"/>
+      <c r="I40" s="136"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="98">
@@ -4276,7 +4387,7 @@
       <c r="H41" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="120"/>
+      <c r="I41" s="136"/>
       <c r="K41" s="82" t="s">
         <v>94</v>
       </c>
@@ -4286,7 +4397,7 @@
       <c r="O41" s="83"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="83"/>
-      <c r="R41" s="110"/>
+      <c r="R41" s="126"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="98">
@@ -4306,7 +4417,7 @@
       <c r="H42" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="119"/>
+      <c r="I42" s="135"/>
       <c r="K42" s="84"/>
       <c r="L42" s="85"/>
       <c r="M42" s="85"/>
@@ -4314,7 +4425,7 @@
       <c r="O42" s="85"/>
       <c r="P42" s="85"/>
       <c r="Q42" s="85"/>
-      <c r="R42" s="112"/>
+      <c r="R42" s="128"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="98">
@@ -4334,7 +4445,7 @@
       <c r="H43" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="119"/>
+      <c r="I43" s="135"/>
       <c r="K43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4372,25 +4483,25 @@
       <c r="H44" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="120"/>
-      <c r="K44" s="127">
+      <c r="I44" s="136"/>
+      <c r="K44" s="143">
         <v>1</v>
       </c>
-      <c r="L44" s="128" t="s">
+      <c r="L44" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="M44" s="128"/>
-      <c r="N44" s="129" t="s">
+      <c r="M44" s="144"/>
+      <c r="N44" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="130" t="s">
+      <c r="O44" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="159" t="s">
+      <c r="P44" s="146"/>
+      <c r="Q44" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="R44" s="160"/>
+      <c r="R44" s="181"/>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="98">
@@ -4410,25 +4521,25 @@
       <c r="H45" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="120"/>
-      <c r="K45" s="127">
+      <c r="I45" s="136"/>
+      <c r="K45" s="143">
         <v>2</v>
       </c>
-      <c r="L45" s="128" t="s">
+      <c r="L45" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="M45" s="128"/>
-      <c r="N45" s="129" t="s">
+      <c r="M45" s="144"/>
+      <c r="N45" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="130" t="s">
+      <c r="O45" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="159" t="s">
+      <c r="P45" s="146"/>
+      <c r="Q45" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="R45" s="160"/>
+      <c r="R45" s="181"/>
     </row>
     <row r="46" spans="2:18">
       <c r="B46" s="98">
@@ -4448,14 +4559,14 @@
       <c r="H46" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="119"/>
+      <c r="I46" s="135"/>
       <c r="K46" s="12">
         <v>3</v>
       </c>
-      <c r="L46" s="105" t="s">
+      <c r="L46" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="M46" s="131"/>
+      <c r="M46" s="147"/>
       <c r="N46" s="14" t="s">
         <v>8</v>
       </c>
@@ -4463,10 +4574,10 @@
         <v>112</v>
       </c>
       <c r="P46" s="15"/>
-      <c r="Q46" s="161" t="s">
+      <c r="Q46" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="R46" s="119"/>
+      <c r="R46" s="135"/>
     </row>
     <row r="47" spans="2:18">
       <c r="B47" s="98">
@@ -4486,7 +4597,7 @@
       <c r="H47" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I47" s="119"/>
+      <c r="I47" s="135"/>
       <c r="K47" s="12">
         <v>4</v>
       </c>
@@ -4501,10 +4612,10 @@
         <v>117</v>
       </c>
       <c r="P47" s="15"/>
-      <c r="Q47" s="152" t="s">
+      <c r="Q47" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="R47" s="153"/>
+      <c r="R47" s="174"/>
     </row>
     <row r="48" spans="2:18">
       <c r="B48" s="98">
@@ -4524,25 +4635,25 @@
       <c r="H48" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="120"/>
-      <c r="K48" s="115">
+      <c r="I48" s="136"/>
+      <c r="K48" s="131">
         <v>5</v>
       </c>
-      <c r="L48" s="116" t="s">
+      <c r="L48" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="116"/>
-      <c r="N48" s="132" t="s">
+      <c r="M48" s="132"/>
+      <c r="N48" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="118" t="s">
+      <c r="O48" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="150" t="s">
+      <c r="P48" s="134"/>
+      <c r="Q48" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="R48" s="151"/>
+      <c r="R48" s="172"/>
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="98">
@@ -4562,25 +4673,25 @@
       <c r="H49" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I49" s="120"/>
-      <c r="K49" s="115">
+      <c r="I49" s="136"/>
+      <c r="K49" s="131">
         <v>6</v>
       </c>
-      <c r="L49" s="116" t="s">
+      <c r="L49" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="M49" s="116"/>
-      <c r="N49" s="132" t="s">
+      <c r="M49" s="132"/>
+      <c r="N49" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="118" t="s">
+      <c r="O49" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="150" t="s">
+      <c r="P49" s="134"/>
+      <c r="Q49" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="R49" s="151"/>
+      <c r="R49" s="172"/>
     </row>
     <row r="50" spans="2:18">
       <c r="B50" s="98">
@@ -4600,25 +4711,25 @@
       <c r="H50" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="119"/>
-      <c r="K50" s="115">
+      <c r="I50" s="135"/>
+      <c r="K50" s="131">
         <v>7</v>
       </c>
-      <c r="L50" s="116" t="s">
+      <c r="L50" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="M50" s="116"/>
-      <c r="N50" s="132" t="s">
+      <c r="M50" s="132"/>
+      <c r="N50" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="118" t="s">
+      <c r="O50" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="150" t="s">
+      <c r="P50" s="134"/>
+      <c r="Q50" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="R50" s="151"/>
+      <c r="R50" s="172"/>
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="98">
@@ -4638,25 +4749,25 @@
       <c r="H51" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="119"/>
-      <c r="K51" s="115">
+      <c r="I51" s="135"/>
+      <c r="K51" s="131">
         <v>8</v>
       </c>
-      <c r="L51" s="133" t="s">
+      <c r="L51" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="M51" s="134"/>
-      <c r="N51" s="132" t="s">
+      <c r="M51" s="150"/>
+      <c r="N51" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O51" s="118" t="s">
+      <c r="O51" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="162" t="s">
+      <c r="P51" s="134"/>
+      <c r="Q51" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="R51" s="163"/>
+      <c r="R51" s="184"/>
     </row>
     <row r="52" spans="2:18">
       <c r="B52" s="98">
@@ -4676,27 +4787,27 @@
       <c r="H52" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="120"/>
-      <c r="K52" s="115">
+      <c r="I52" s="136"/>
+      <c r="K52" s="131">
         <v>9</v>
       </c>
-      <c r="L52" s="133" t="s">
+      <c r="L52" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="M52" s="134"/>
-      <c r="N52" s="132" t="s">
+      <c r="M52" s="150"/>
+      <c r="N52" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="118" t="s">
+      <c r="O52" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="162" t="s">
+      <c r="P52" s="134"/>
+      <c r="Q52" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="R52" s="163"/>
-    </row>
-    <row r="53" spans="2:18">
+      <c r="R52" s="184"/>
+    </row>
+    <row r="53" ht="15.15" spans="2:18">
       <c r="B53" s="101">
         <v>28</v>
       </c>
@@ -4714,328 +4825,1046 @@
       <c r="H53" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="135"/>
-      <c r="K53" s="115">
+      <c r="I53" s="151"/>
+      <c r="K53" s="131">
         <v>10</v>
       </c>
-      <c r="L53" s="133" t="s">
+      <c r="L53" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="M53" s="134"/>
-      <c r="N53" s="132" t="s">
+      <c r="M53" s="150"/>
+      <c r="N53" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O53" s="118" t="s">
+      <c r="O53" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="162" t="s">
+      <c r="P53" s="134"/>
+      <c r="Q53" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="R53" s="163"/>
+      <c r="R53" s="184"/>
     </row>
     <row r="54" spans="11:18">
-      <c r="K54" s="115">
-        <v>11</v>
-      </c>
-      <c r="L54" s="133" t="s">
+      <c r="K54" s="131">
+        <v>11</v>
+      </c>
+      <c r="L54" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="M54" s="134"/>
-      <c r="N54" s="132" t="s">
+      <c r="M54" s="150"/>
+      <c r="N54" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="118" t="s">
+      <c r="O54" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="162" t="s">
+      <c r="P54" s="134"/>
+      <c r="Q54" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="R54" s="163"/>
+      <c r="R54" s="184"/>
     </row>
     <row r="55" spans="11:18">
-      <c r="K55" s="115">
+      <c r="K55" s="131">
         <v>12</v>
       </c>
-      <c r="L55" s="116" t="s">
+      <c r="L55" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="M55" s="116"/>
-      <c r="N55" s="132" t="s">
+      <c r="M55" s="132"/>
+      <c r="N55" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="O55" s="118" t="s">
+      <c r="O55" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="150" t="s">
+      <c r="P55" s="134"/>
+      <c r="Q55" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="R55" s="151"/>
-    </row>
-    <row r="56" spans="11:18">
-      <c r="K56" s="136">
+      <c r="R55" s="172"/>
+    </row>
+    <row r="56" ht="15.15" spans="11:18">
+      <c r="K56" s="152">
         <v>13</v>
       </c>
-      <c r="L56" s="137" t="s">
+      <c r="L56" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="M56" s="137"/>
-      <c r="N56" s="138" t="s">
+      <c r="M56" s="153"/>
+      <c r="N56" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="O56" s="139" t="s">
+      <c r="O56" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="164" t="s">
+      <c r="P56" s="155"/>
+      <c r="Q56" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="R56" s="165"/>
-    </row>
-    <row r="57" spans="11:18">
-      <c r="K57" s="136">
+      <c r="R56" s="186"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="156"/>
+      <c r="K57" s="152">
         <v>14</v>
       </c>
-      <c r="L57" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="M57" s="137"/>
-      <c r="N57" s="138" t="s">
+      <c r="L57" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="M57" s="153"/>
+      <c r="N57" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="164" t="s">
+      <c r="O57" s="155" t="s">
+        <v>158</v>
+      </c>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="R57" s="165"/>
-    </row>
-    <row r="58" spans="11:18">
-      <c r="K58" s="136">
+      <c r="R57" s="186"/>
+    </row>
+    <row r="58" ht="15.15" spans="2:18">
+      <c r="B58" s="106"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="157"/>
+      <c r="K58" s="152">
         <v>15</v>
       </c>
-      <c r="L58" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="M58" s="140"/>
-      <c r="N58" s="141" t="s">
+      <c r="L58" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="M58" s="158"/>
+      <c r="N58" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="142" t="s">
-        <v>159</v>
-      </c>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="166" t="s">
+      <c r="O58" s="160" t="s">
+        <v>160</v>
+      </c>
+      <c r="P58" s="160"/>
+      <c r="Q58" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="R58" s="167"/>
-    </row>
-    <row r="59" spans="11:18">
-      <c r="K59" s="143">
+      <c r="R58" s="188"/>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="110"/>
+      <c r="E59" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="113"/>
+      <c r="H59" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="161"/>
+      <c r="K59" s="162">
         <v>16</v>
       </c>
-      <c r="L59" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="M59" s="144"/>
-      <c r="N59" s="145" t="s">
+      <c r="L59" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="M59" s="163"/>
+      <c r="N59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="146" t="s">
-        <v>161</v>
-      </c>
-      <c r="P59" s="146"/>
-      <c r="Q59" s="168" t="s">
+      <c r="O59" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="P59" s="165"/>
+      <c r="Q59" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="R59" s="169"/>
-    </row>
-    <row r="60" spans="11:18">
-      <c r="K60" s="143">
+      <c r="R59" s="190"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="115">
+        <v>1</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="116"/>
+      <c r="E60" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="118"/>
+      <c r="H60" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="166"/>
+      <c r="K60" s="162">
         <v>17</v>
       </c>
-      <c r="L60" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="M60" s="144"/>
-      <c r="N60" s="145" t="s">
+      <c r="L60" s="163" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" s="163"/>
+      <c r="N60" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="P60" s="146"/>
-      <c r="Q60" s="168" t="s">
+      <c r="O60" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="R60" s="169"/>
-    </row>
-    <row r="61" spans="11:18">
+      <c r="P60" s="165"/>
+      <c r="Q60" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="R60" s="190"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="115">
+        <v>2</v>
+      </c>
+      <c r="C61" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="166"/>
       <c r="K61" s="12">
         <v>18</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M61" s="13"/>
       <c r="N61" s="14" t="s">
         <v>8</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P61" s="15"/>
-      <c r="Q61" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="R61" s="153"/>
-    </row>
-    <row r="62" spans="11:18">
+      <c r="Q61" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="R61" s="174"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="115">
+        <v>3</v>
+      </c>
+      <c r="C62" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="116"/>
+      <c r="E62" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="166"/>
       <c r="K62" s="12">
         <v>19</v>
       </c>
-      <c r="L62" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="M62" s="116"/>
-      <c r="N62" s="117" t="s">
+      <c r="L62" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="M62" s="132"/>
+      <c r="N62" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="R62" s="151"/>
-    </row>
-    <row r="63" spans="11:18">
+      <c r="O62" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="R62" s="172"/>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="115">
+        <v>4</v>
+      </c>
+      <c r="C63" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="116"/>
+      <c r="E63" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="167"/>
       <c r="K63" s="12">
         <v>20</v>
       </c>
-      <c r="L63" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="M63" s="116"/>
-      <c r="N63" s="117" t="s">
+      <c r="L63" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="M63" s="132"/>
+      <c r="N63" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O63" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="R63" s="151"/>
-    </row>
-    <row r="64" spans="11:18">
+      <c r="O63" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="R63" s="172"/>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="115">
+        <v>5</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="116"/>
+      <c r="E64" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="118"/>
+      <c r="H64" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="167"/>
       <c r="K64" s="12">
         <v>21</v>
       </c>
-      <c r="L64" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="M64" s="116"/>
-      <c r="N64" s="117" t="s">
+      <c r="L64" s="132" t="s">
+        <v>176</v>
+      </c>
+      <c r="M64" s="132"/>
+      <c r="N64" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O64" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="R64" s="151"/>
-    </row>
-    <row r="65" spans="11:18">
+      <c r="O64" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="R64" s="172"/>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="115">
+        <v>6</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="116"/>
+      <c r="E65" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="166"/>
       <c r="K65" s="12">
         <v>22</v>
       </c>
-      <c r="L65" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="M65" s="116"/>
-      <c r="N65" s="117" t="s">
+      <c r="L65" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="M65" s="132"/>
+      <c r="N65" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="O65" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="R65" s="151"/>
-    </row>
-    <row r="66" spans="11:18">
+      <c r="O65" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="R65" s="172"/>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="115">
+        <v>7</v>
+      </c>
+      <c r="C66" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="116"/>
+      <c r="E66" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="166"/>
       <c r="K66" s="12">
         <v>23</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M66" s="13"/>
       <c r="N66" s="31" t="s">
         <v>8</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P66" s="15"/>
-      <c r="Q66" s="152" t="s">
-        <v>170</v>
-      </c>
-      <c r="R66" s="153"/>
-    </row>
-    <row r="67" spans="11:18">
+      <c r="Q66" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="R66" s="174"/>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="115">
+        <v>8</v>
+      </c>
+      <c r="C67" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="166"/>
       <c r="K67" s="12">
         <v>24</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M67" s="13"/>
       <c r="N67" s="31" t="s">
         <v>8</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P67" s="15"/>
-      <c r="Q67" s="152" t="s">
-        <v>170</v>
-      </c>
-      <c r="R67" s="153"/>
-    </row>
-    <row r="68" spans="11:18">
+      <c r="Q67" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="R67" s="174"/>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="115">
+        <v>9</v>
+      </c>
+      <c r="C68" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="116"/>
+      <c r="E68" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="167"/>
       <c r="K68" s="12">
         <v>25</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M68" s="13"/>
       <c r="N68" s="31" t="s">
         <v>8</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P68" s="15"/>
-      <c r="Q68" s="152" t="s">
+      <c r="Q68" s="173" t="s">
         <v>128</v>
       </c>
-      <c r="R68" s="153"/>
+      <c r="R68" s="174"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="115">
+        <v>10</v>
+      </c>
+      <c r="C69" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="167"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="115">
+        <v>11</v>
+      </c>
+      <c r="C70" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="116"/>
+      <c r="E70" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="166"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="115">
+        <v>12</v>
+      </c>
+      <c r="C71" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="116"/>
+      <c r="E71" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="118"/>
+      <c r="H71" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I71" s="166"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="115">
+        <v>13</v>
+      </c>
+      <c r="C72" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="116"/>
+      <c r="E72" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" s="118"/>
+      <c r="H72" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="166"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="115">
+        <v>14</v>
+      </c>
+      <c r="C73" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="116"/>
+      <c r="E73" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="167"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="115">
+        <v>15</v>
+      </c>
+      <c r="C74" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="116"/>
+      <c r="E74" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="118"/>
+      <c r="H74" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="167"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="115">
+        <v>16</v>
+      </c>
+      <c r="C75" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="116"/>
+      <c r="E75" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="166"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="115">
+        <v>17</v>
+      </c>
+      <c r="C76" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="116"/>
+      <c r="E76" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="118"/>
+      <c r="H76" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" s="166"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="115">
+        <v>18</v>
+      </c>
+      <c r="C77" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" s="166"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="115">
+        <v>19</v>
+      </c>
+      <c r="C78" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" s="167"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="115">
+        <v>20</v>
+      </c>
+      <c r="C79" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" s="167"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="115">
+        <v>21</v>
+      </c>
+      <c r="C80" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="116"/>
+      <c r="E80" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" s="118"/>
+      <c r="H80" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="166"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="115">
+        <v>22</v>
+      </c>
+      <c r="C81" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="116"/>
+      <c r="E81" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81" s="118"/>
+      <c r="H81" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I81" s="166"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="115">
+        <v>23</v>
+      </c>
+      <c r="C82" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="116"/>
+      <c r="E82" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="118"/>
+      <c r="H82" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" s="166"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="115">
+        <v>24</v>
+      </c>
+      <c r="C83" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="116"/>
+      <c r="E83" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" s="118"/>
+      <c r="H83" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" s="167"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="115">
+        <v>25</v>
+      </c>
+      <c r="C84" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="116"/>
+      <c r="E84" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" s="167"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="115">
+        <v>26</v>
+      </c>
+      <c r="C85" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="116"/>
+      <c r="E85" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="118"/>
+      <c r="H85" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" s="166"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="115">
+        <v>27</v>
+      </c>
+      <c r="C86" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="116"/>
+      <c r="E86" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="118"/>
+      <c r="H86" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" s="166"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="115">
+        <v>28</v>
+      </c>
+      <c r="C87" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="116"/>
+      <c r="E87" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" s="118"/>
+      <c r="H87" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="166"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="115">
+        <v>29</v>
+      </c>
+      <c r="C88" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="116"/>
+      <c r="E88" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" s="167"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="115">
+        <v>30</v>
+      </c>
+      <c r="C89" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="116"/>
+      <c r="E89" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="118"/>
+      <c r="H89" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I89" s="167"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="115">
+        <v>31</v>
+      </c>
+      <c r="C90" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="116"/>
+      <c r="E90" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90" s="118"/>
+      <c r="H90" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="166"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="115">
+        <v>32</v>
+      </c>
+      <c r="C91" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="116"/>
+      <c r="E91" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I91" s="166"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="115">
+        <v>33</v>
+      </c>
+      <c r="C92" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="116"/>
+      <c r="E92" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="118"/>
+      <c r="H92" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="166"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="115">
+        <v>34</v>
+      </c>
+      <c r="C93" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="116"/>
+      <c r="E93" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" s="118"/>
+      <c r="H93" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="167"/>
+    </row>
+    <row r="94" ht="15.15" spans="2:9">
+      <c r="B94" s="191">
+        <v>35</v>
+      </c>
+      <c r="C94" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="192"/>
+      <c r="E94" s="193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="194" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" s="194"/>
+      <c r="H94" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" s="196"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="371">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="K6:L6"/>
@@ -5262,42 +6091,151 @@
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="O58:P58"/>
     <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="O59:P59"/>
     <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="O60:P60"/>
     <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="O63:P63"/>
     <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="O66:P66"/>
     <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="O67:P67"/>
     <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="B23:I24"/>
     <mergeCell ref="J4:Q5"/>
     <mergeCell ref="K41:R42"/>
     <mergeCell ref="K23:R24"/>
     <mergeCell ref="L32:R35"/>
+    <mergeCell ref="B57:I58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L32:R35" location="DI_DO_AI_AO!B23" display="float地址开始：请跳转查看"/>
@@ -5313,7 +6251,7 @@
   <sheetPr/>
   <dimension ref="B2:S46"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="C22" workbookViewId="0">
       <selection activeCell="R37" sqref="R37:S37"/>
     </sheetView>
   </sheetViews>
@@ -5326,7 +6264,7 @@
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:19">
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5336,7 +6274,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="33"/>
       <c r="L3" s="34" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
@@ -5407,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
@@ -5421,18 +6359,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="50" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="S6" s="51"/>
     </row>
@@ -5441,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
@@ -5455,18 +6393,18 @@
         <v>2</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="50" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="S7" s="51"/>
     </row>
@@ -5475,7 +6413,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -5489,18 +6427,18 @@
         <v>3</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="50" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="S8" s="51"/>
     </row>
@@ -5509,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
@@ -5523,18 +6461,18 @@
         <v>4</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="50" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="S9" s="51"/>
     </row>
@@ -5543,7 +6481,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
@@ -5557,18 +6495,18 @@
         <v>5</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="50" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="S10" s="51"/>
     </row>
@@ -5577,7 +6515,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
@@ -5591,18 +6529,18 @@
         <v>6</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="50" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="S11" s="51"/>
     </row>
@@ -5611,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
@@ -5625,18 +6563,18 @@
         <v>7</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="50" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="S12" s="51"/>
     </row>
@@ -5645,7 +6583,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
@@ -5659,18 +6597,18 @@
         <v>8</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="50" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="S13" s="51"/>
     </row>
@@ -5679,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
@@ -5693,18 +6631,18 @@
         <v>9</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="50" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="S14" s="51"/>
     </row>
@@ -5713,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
@@ -5727,18 +6665,18 @@
         <v>10</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="50" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S15" s="51"/>
     </row>
@@ -5747,7 +6685,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
@@ -5761,18 +6699,18 @@
         <v>11</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="50" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="S16" s="51"/>
     </row>
@@ -5781,18 +6719,18 @@
         <v>12</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="50" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="S17" s="51"/>
     </row>
@@ -5801,18 +6739,18 @@
         <v>13</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="50" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="S18" s="51"/>
     </row>
@@ -5821,24 +6759,24 @@
         <v>14</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="50" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="S19" s="51"/>
     </row>
     <row r="20" ht="15" spans="2:19">
       <c r="B20" s="22" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -5851,18 +6789,18 @@
         <v>15</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="50" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="S20" s="51"/>
     </row>
@@ -5879,18 +6817,18 @@
         <v>16</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="50" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="S21" s="51"/>
     </row>
@@ -5917,18 +6855,18 @@
         <v>17</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="50" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="S22" s="51"/>
     </row>
@@ -5937,36 +6875,36 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I23" s="44"/>
       <c r="L23" s="12">
         <v>18</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="50" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="S23" s="51"/>
     </row>
@@ -5975,36 +6913,36 @@
         <v>2</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I24" s="44"/>
       <c r="L24" s="12">
         <v>19</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="50" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="S24" s="51"/>
     </row>
@@ -6013,36 +6951,36 @@
         <v>3</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I25" s="44"/>
       <c r="L25" s="12">
         <v>20</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="50" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="S25" s="51"/>
     </row>
@@ -6051,36 +6989,36 @@
         <v>4</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="29" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I26" s="40"/>
       <c r="L26" s="12">
         <v>21</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="50" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="S26" s="51"/>
     </row>
@@ -6089,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
@@ -6098,25 +7036,25 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I27" s="40"/>
       <c r="L27" s="12">
         <v>22</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="50" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="S27" s="51"/>
     </row>
@@ -6125,7 +7063,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
@@ -6134,25 +7072,25 @@
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I28" s="40"/>
       <c r="L28" s="12">
         <v>23</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="50" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S28" s="51"/>
     </row>
@@ -6161,7 +7099,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14" t="s">
@@ -6170,25 +7108,25 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I29" s="40"/>
       <c r="L29" s="12">
         <v>24</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="50" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="S29" s="51"/>
     </row>
@@ -6197,7 +7135,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14" t="s">
@@ -6206,25 +7144,25 @@
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I30" s="40"/>
       <c r="L30" s="12">
         <v>25</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q30" s="15"/>
       <c r="R30" s="50" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="S30" s="51"/>
     </row>
@@ -6233,7 +7171,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
@@ -6242,25 +7180,25 @@
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I31" s="40"/>
       <c r="L31" s="12">
         <v>26</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="50" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="S31" s="51"/>
     </row>
@@ -6269,7 +7207,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14" t="s">
@@ -6278,25 +7216,25 @@
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I32" s="40"/>
       <c r="L32" s="12">
         <v>27</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="50" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="S32" s="51"/>
     </row>
@@ -6305,7 +7243,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
@@ -6314,25 +7252,25 @@
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I33" s="40"/>
       <c r="L33" s="12">
         <v>28</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="50" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="S33" s="51"/>
     </row>
@@ -6341,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="14" t="s">
@@ -6350,21 +7288,21 @@
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I34" s="40"/>
       <c r="L34" s="12">
         <v>29</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="15"/>
       <c r="R34" s="50"/>
@@ -6375,7 +7313,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
@@ -6384,21 +7322,21 @@
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
       <c r="H35" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I35" s="40"/>
       <c r="L35" s="12">
         <v>30</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="Q35" s="15"/>
       <c r="R35" s="50"/>
@@ -6409,7 +7347,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
@@ -6418,25 +7356,25 @@
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I36" s="40"/>
       <c r="L36" s="12">
         <v>31</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14" t="s">
         <v>8</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q36" s="15"/>
       <c r="R36" s="50" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="S36" s="51"/>
     </row>
@@ -6445,7 +7383,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
@@ -6454,25 +7392,25 @@
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I37" s="40"/>
       <c r="L37" s="17">
         <v>32</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="52" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="S37" s="53"/>
     </row>
@@ -6481,7 +7419,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="19" t="s">
@@ -6490,14 +7428,14 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="21" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I38" s="41"/>
     </row>
     <row r="39" ht="15.15"/>
     <row r="40" spans="12:19">
       <c r="L40" s="45" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M40" s="46"/>
       <c r="N40" s="46"/>
@@ -6542,18 +7480,18 @@
         <v>1</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="14" t="s">
         <v>11</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="15"/>
       <c r="R43" s="16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="S43" s="40"/>
     </row>
@@ -6562,7 +7500,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="14" t="s">
